--- a/mergetintoCI17.xlsx
+++ b/mergetintoCI17.xlsx
@@ -143,9 +143,6 @@
     <t xml:space="preserve"> Northern New England</t>
   </si>
   <si>
-    <t xml:space="preserve"> Northern NJ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Triboro</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern New Jersey</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
